--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -311,12 +311,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="BD57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="527">
   <si>
     <t>是否执行</t>
   </si>
@@ -1212,6 +1256,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>首页耗材提醒</t>
     </r>
     <r>
@@ -1231,6 +1280,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>详情家庭耗材列表</t>
     </r>
     <r>
@@ -1350,6 +1404,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>non-非网器设备绑定-手动选型</t>
     </r>
     <r>
@@ -1379,6 +1438,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>搜索设备型号</t>
     </r>
     <r>
@@ -1462,6 +1527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓝牙体脂秤绑定</t>
     </r>
     <r>
@@ -1503,6 +1574,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓝牙体脂秤绑定</t>
     </r>
     <r>
@@ -1592,7 +1669,7 @@
 }</t>
   </si>
   <si>
-    <t>家庭</t>
+    <t>家庭服务(appserver)</t>
   </si>
   <si>
     <t>【家庭管理员退出家庭】正向--familyID移交给他人后，查看家庭管理员的家庭列表中家庭数据消失</t>
@@ -1633,9 +1710,6 @@
   </si>
   <si>
     <t>调用获取家庭信息wisdom接口</t>
-  </si>
-  <si>
-    <t>"retCode":"00000";"createTime":null;"familyMembers":null</t>
   </si>
   <si>
     <t>【家庭管理员退出家庭】正向--userId为管理员自己</t>
@@ -1687,6 +1761,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>【家庭成员主动退出家庭】正向</t>
     </r>
     <r>
@@ -1731,6 +1811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭信息编辑】正向</t>
     </r>
     <r>
@@ -1806,6 +1892,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【获取第一个加入家庭的用户信息】正向</t>
     </r>
     <r>
@@ -1837,7 +1929,26 @@
     <t>"retCode":"00000";"retInfo":"操作成功";"userId":"**uhomeUserId**"</t>
   </si>
   <si>
+    <t>【查询当前用户在家庭中分享设备数量】正向--当前用户不是家庭成员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/emuplus/family/v1/devowner/share/count
+</t>
+  </si>
+  <si>
+    <t>【查询当前用户在家庭中分享设备数量】正向----当前用户是家庭成员</t>
+  </si>
+  <si>
+    <t>【查询当前用户在家庭中分享设备数量】正向--当前用户是家庭管理员</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员邀请用户加入家庭】正向</t>
     </r>
     <r>
@@ -1879,6 +1990,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员邀请用户加入家庭】正向</t>
     </r>
     <r>
@@ -1929,6 +2046,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员邀请用户加入家庭】正向</t>
     </r>
     <r>
@@ -2017,6 +2140,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员删除家庭成员】正向</t>
     </r>
     <r>
@@ -2062,6 +2191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员删除家庭成员】正向</t>
     </r>
     <r>
@@ -2094,6 +2229,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员解散家庭】正向</t>
     </r>
     <r>
@@ -2140,7 +2281,16 @@
     <t>"retCode":"00000";"retInfo":"操作成功";!!NewFamily312;!!"**familyId**"</t>
   </si>
   <si>
+    <t>删除账号所有加入的家庭（防止下一个用例有加入的极爱他那个）</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【家庭管理员解散家庭】正向</t>
     </r>
     <r>
@@ -2179,6 +2329,469 @@
     <t>"retCode":"67001";"retInfo":"家庭内有设备时不能解散家庭"</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【添加房间】正向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传所有参数</t>
+    </r>
+  </si>
+  <si>
+    <t>【添加房间】正向-传所有参数</t>
+  </si>
+  <si>
+    <t>{
+"roomName": "NewRoom??",
+"familyId": "**familyId**",
+"roomClass": "dd",
+"roomLabel": "12",
+"roomLogo": "34",
+"roomPicture": "dd"
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";roomId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【添加房间】正向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roomName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>familyId</t>
+    </r>
+  </si>
+  <si>
+    <t>【添加房间】正向-只传roomName、familyId</t>
+  </si>
+  <si>
+    <t>{
+"roomName": "NewRoom??",
+"familyId": "**familyId**"
+}</t>
+  </si>
+  <si>
+    <t>【删除房间】正向-删除后，查看家庭列表和家庭详情没有该房间</t>
+  </si>
+  <si>
+    <t>【添加房间】</t>
+  </si>
+  <si>
+    <t>{
+"roomName": "NewRoom3122",
+"familyId": "**familyId**"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/emuplus/family/v2/family/list
+</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";NewRoom3122;"**roomId**"</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+"roomId":"**roomId**"
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";!!NewRoom3122;!!"**roomId**"</t>
+  </si>
+  <si>
+    <t>【修改房间名称】正向-修改房间名称成功后，查询家庭列表和家庭详情中房间名称显示为最新名称</t>
+  </si>
+  <si>
+    <t>{
+"roomName": "NewRoom1927",
+"familyId": "**familyId**"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/emuplus/family/v1/family/room/modify
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+"familyId": "**familyId**",
+"roomId": "**roomId**",
+"roomName": "NewRoon2123"
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";NewRoon2123;"**roomId**";!!NewRoom1927</t>
+  </si>
+  <si>
+    <t>【保存默认家庭】正向-保存后，查看家庭信息中默认家庭设置成功</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/save/defaultFamilyId</t>
+  </si>
+  <si>
+    <t>{
+"familyId": "**familyId**"
+}</t>
+  </si>
+  <si>
+    <t>【修改家庭成员在家庭里的名称】正向-修改家庭成员名称后，查看家庭成员名称</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/memberName/modify</t>
+  </si>
+  <si>
+    <t>{"familyId":"**familyId**",
+"memberId":"**uhomeUserId**",
+"memberName":"checkmemerName12"
+}</t>
+  </si>
+  <si>
+    <t>调用获取家庭里所有成员</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/all/family/members</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"memberName":"checkmemerName12"</t>
+  </si>
+  <si>
+    <t>获取家庭信息emuplus接口</t>
+  </si>
+  <si>
+    <t>获取家庭信息wisdomapi接口</t>
+  </si>
+  <si>
+    <t>【扫描二维码加入家庭】正向-加入家庭成功后，查询该家庭成员信息</t>
+  </si>
+  <si>
+    <t>{
+ "authCode":"**qrcode**",
+"userFamilyName":"testwei"
+}</t>
+  </si>
+  <si>
+    <t>调用获取家庭列表V1接口查看familyUserCount的数值</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"familyUserCount":"2"</t>
+  </si>
+  <si>
+    <t>调用获取家庭列表V2接口查看familyUserCount的数值</t>
+  </si>
+  <si>
+    <t>调用获取家庭列表wisdomapi接口查看familyUserCount的数值</t>
+  </si>
+  <si>
+    <t>调用获取家庭信息查看家庭成员信息</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"memberName":"testwei"</t>
+  </si>
+  <si>
+    <t>调用获取家庭信息wisdom接口查看家庭成员信息</t>
+  </si>
+  <si>
+    <t>获取邀请家人进程列表-正向</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/invitation/process/list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "familyId": "**familyId**",
+ "pageNumber": 1,
+ "pageSize":"10"
+}
+</t>
+  </si>
+  <si>
+    <t>【取消邀请家人】-正向-用户是管理员</t>
+  </si>
+  <si>
+    <t>邀请用户加入家庭V2(通过userId加入)</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v2/family/invitation</t>
+  </si>
+  <si>
+    <t>{"familyId":"**familyId**",
+"userId":"**uhomeUserId**",
+"memberName":"invit_wei"}</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/invitation/cancel</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+ "userId":"**uhomeUserId**"
+}</t>
+  </si>
+  <si>
+    <t>【设置默认家庭】正向-保存后，查看家庭信息中默认家庭设置成功--isdefault</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/defaultFamily/set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"familyId":"**familyId**"
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/emuplus/family/v1/family/list
+</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"isDefault":1</t>
+  </si>
+  <si>
+    <t>【设置默认家庭】正向-家庭二维码过期</t>
+  </si>
+  <si>
+    <t>获取家庭二维码</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+ "timeout":1
+}</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>家庭二维码过期</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/qrcode/info</t>
+  </si>
+  <si>
+    <t>{
+ "code": "**qrcode**"
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"E31138","retInfo":"家庭二维码过期"</t>
+  </si>
+  <si>
+    <t>【设置默认家庭】正向-获取家庭二维码成功</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+ "timeout":10
+}</t>
+  </si>
+  <si>
+    <t>家庭二维码成功</t>
+  </si>
+  <si>
+    <t>【获取家庭信息V2】正向</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v2/family/familyInfo</t>
+  </si>
+  <si>
+    <t>统一鉴权服务-账号服务</t>
+  </si>
+  <si>
+    <t>【账号密码登录】正向--username和password为正确的信息</t>
+  </si>
+  <si>
+    <t>domain2/oauthserver/account/v1/login</t>
+  </si>
+  <si>
+    <t>{
+ "username": "13361249890",
+ "password": "weiwei123"
+}</t>
+  </si>
+  <si>
+    <t>【刷新普通登录】正向--传入正确的refreshToken</t>
+  </si>
+  <si>
+    <t>【刷新普通登录】正向--传入正确的refreshToken((token过期后可能会失败))</t>
+  </si>
+  <si>
+    <t>domain2/oauthserver/account/v1/refreshToken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "refreshToken":"024ad0973a7a44bf872576dbb6030d2a"
+}
+</t>
+  </si>
+  <si>
+    <t>【用户账号退出】正向--</t>
+  </si>
+  <si>
+    <t>domain2/oauthserver/account/v1/logout</t>
+  </si>
+  <si>
+    <t>【账号密码登录（加密）】正向--传入所有必填参数正确</t>
+  </si>
+  <si>
+    <t>domain2/oauthserver/account/v2/login</t>
+  </si>
+  <si>
+    <t>{
+   "username":"15291458766",
+"password":"N8F98bOR0Wh29CXYGOjs1g==",
+"sesame":"gDpciTZ57MeIMAvv/wwcvt4O2VLa/AAFQI8ORzQm52yIQXkxIhdzBvOtiqiQtPpia6hLd9Y5/J9t5vAeq8NYgM13EbDPS25h6pDZ54Mh99qLxHQ2FtrquG79zUunAyRGtX1mC63f52FsfkB4tfhnd2/kBr09jBIyNkEoZePdJUE=",
+   "phoneType":"huawei"
+}</t>
+  </si>
+  <si>
+    <t>运营API-邀请体系</t>
+  </si>
+  <si>
+    <t>【查询邀请码邀请记录列表】正向--传入count为1</t>
+  </si>
+  <si>
+    <t>domain2/omsappapi/inviteUser/record/list</t>
+  </si>
+  <si>
+    <t>{
+ "count":1,
+ "index": 0
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";totalCount;items</t>
+  </si>
+  <si>
+    <t>【查询邀请码邀请记录列表】正向--传入count为10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "count":10,
+ "index": 0
+}
+</t>
+  </si>
+  <si>
+    <t>【查询邀请码邀请记录列表】正向--传入index为10</t>
+  </si>
+  <si>
+    <t>{
+ "count":10,
+ "index": 10
+}</t>
+  </si>
+  <si>
+    <t>【获取用户邀请码】正向--查看登录用户邀请码</t>
+  </si>
+  <si>
+    <t>domain2/omsappapi/inviteUser/code/query</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";inviteCode</t>
+  </si>
+  <si>
+    <t>【获取用户邀请码】正向--查看更换登录用户查看邀请码</t>
+  </si>
+  <si>
+    <t>【查询用户注册时间】正向--查看登录用户注册时间</t>
+  </si>
+  <si>
+    <t>domain2/omsappapi/inviteUser/registerTime</t>
+  </si>
+  <si>
+    <t>【用户填写邀请码】正向--传入正确的必填参数</t>
+  </si>
+  <si>
+    <t>domain2/omsappapi/inviteUser/code/set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "inviteCode":"WCJLF"
+}
+</t>
+  </si>
+  <si>
+    <t>【查询用户填写的邀请码】正向--查看登录用户填写的邀请码</t>
+  </si>
+  <si>
+    <t>domain2/omsappapi/inviteUser/code/setting/query</t>
+  </si>
+  <si>
+    <t>【通过邀请码查询用户信息】正向--传入正确的inviteCode</t>
+  </si>
+  <si>
+    <t>{
+ "inviteCode":"BD7Q5AA7"
+}</t>
+  </si>
+  <si>
     <t>{
  "username": "15192727132",
  "password": "weiwei123",
@@ -2218,11 +2831,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2280,12 +2893,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -2303,6 +2910,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -2311,6 +2924,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2328,70 +2953,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2411,8 +2977,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2426,25 +3000,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,6 +3017,74 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2495,9 +3120,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2505,8 +3130,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2521,19 +3152,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,43 +3194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,19 +3218,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,13 +3308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2641,73 +3338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,6 +3369,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2767,39 +3448,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2817,19 +3465,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2841,10 +3478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2853,137 +3490,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3041,11 +3678,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3053,13 +3687,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3068,10 +3705,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3086,7 +3723,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3101,7 +3738,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3110,10 +3750,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3464,10 +4113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ER73"/>
+  <dimension ref="A1:ER98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="AT64" workbookViewId="0">
-      <selection activeCell="BD72" sqref="BD72"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A98" sqref="$A98:$XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -3476,9 +4125,9 @@
     <col min="2" max="3" width="9.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="12" style="9" customWidth="1"/>
     <col min="5" max="5" width="40.175" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.675" style="13" customWidth="1"/>
+    <col min="6" max="6" width="48.125" style="13" customWidth="1"/>
     <col min="7" max="7" width="38.925" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.6416666666667" style="9" customWidth="1"/>
+    <col min="8" max="8" width="66.4583333333333" style="9" customWidth="1"/>
     <col min="9" max="9" width="16.9583333333333" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="9" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="9" customWidth="1"/>
@@ -3565,7 +4214,7 @@
     <col min="111" max="111" width="39.1" style="9" customWidth="1"/>
     <col min="112" max="112" width="13.3833333333333" style="9" customWidth="1"/>
     <col min="113" max="115" width="9" style="9"/>
-    <col min="116" max="116" width="9" style="13"/>
+    <col min="116" max="116" width="22.2916666666667" style="13" customWidth="1"/>
     <col min="117" max="117" width="41.7833333333333" style="10" customWidth="1"/>
     <col min="118" max="118" width="14.4583333333333" style="9" customWidth="1"/>
     <col min="119" max="119" width="9" style="9"/>
@@ -5395,7 +6044,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>138</v>
@@ -5513,7 +6162,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>138</v>
@@ -5722,7 +6371,7 @@
         <v>111</v>
       </c>
       <c r="B12" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>219</v>
@@ -5880,8 +6529,8 @@
       <c r="A13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="10">
-        <v>12</v>
+      <c r="B13" s="9">
+        <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>219</v>
@@ -6080,8 +6729,8 @@
       <c r="A14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="10">
-        <v>13</v>
+      <c r="B14" s="9">
+        <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>219</v>
@@ -6131,7 +6780,7 @@
         <v>111</v>
       </c>
       <c r="B15" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>245</v>
@@ -6202,7 +6851,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>245</v>
@@ -6273,7 +6922,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>245</v>
@@ -6344,7 +6993,7 @@
         <v>111</v>
       </c>
       <c r="B18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>245</v>
@@ -6415,7 +7064,7 @@
         <v>111</v>
       </c>
       <c r="B19" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>245</v>
@@ -6486,7 +7135,7 @@
         <v>111</v>
       </c>
       <c r="B20" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>245</v>
@@ -6557,7 +7206,7 @@
         <v>111</v>
       </c>
       <c r="B21" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>245</v>
@@ -6628,7 +7277,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>245</v>
@@ -6699,7 +7348,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>268</v>
@@ -6770,7 +7419,7 @@
         <v>111</v>
       </c>
       <c r="B24" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>268</v>
@@ -6830,7 +7479,7 @@
         <v>111</v>
       </c>
       <c r="B25" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>268</v>
@@ -6889,7 +7538,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>268</v>
@@ -6948,7 +7597,7 @@
         <v>111</v>
       </c>
       <c r="B27" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>268</v>
@@ -7003,7 +7652,7 @@
         <v>111</v>
       </c>
       <c r="B28" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>268</v>
@@ -7062,7 +7711,7 @@
         <v>111</v>
       </c>
       <c r="B29" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>268</v>
@@ -7122,7 +7771,7 @@
         <v>111</v>
       </c>
       <c r="B30" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>268</v>
@@ -7176,7 +7825,7 @@
         <v>111</v>
       </c>
       <c r="B31" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>268</v>
@@ -7229,7 +7878,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>268</v>
@@ -7321,7 +7970,7 @@
         <v>111</v>
       </c>
       <c r="B33" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>268</v>
@@ -7413,7 +8062,7 @@
         <v>111</v>
       </c>
       <c r="B34" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>268</v>
@@ -7484,7 +8133,7 @@
         <v>111</v>
       </c>
       <c r="B35" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>268</v>
@@ -7533,8 +8182,8 @@
       <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="10">
-        <v>36</v>
+      <c r="B36" s="9">
+        <v>34</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>268</v>
@@ -7601,8 +8250,8 @@
       <c r="A37" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="10">
-        <v>37</v>
+      <c r="B37" s="9">
+        <v>35</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>268</v>
@@ -7685,8 +8334,8 @@
       <c r="A38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="10">
-        <v>38</v>
+      <c r="B38" s="9">
+        <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>268</v>
@@ -7749,8 +8398,8 @@
       <c r="A39" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="10">
-        <v>39</v>
+      <c r="B39" s="9">
+        <v>37</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>329</v>
@@ -7784,8 +8433,8 @@
       <c r="A40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="10">
-        <v>40</v>
+      <c r="B40" s="9">
+        <v>38</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>331</v>
@@ -8034,8 +8683,8 @@
       <c r="A41" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="10">
-        <v>41</v>
+      <c r="B41" s="9">
+        <v>39</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>331</v>
@@ -8158,8 +8807,8 @@
       <c r="A42" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="10">
-        <v>42</v>
+      <c r="B42" s="9">
+        <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>331</v>
@@ -8379,15 +9028,15 @@
         <v>224</v>
       </c>
       <c r="DG42" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" ht="187.5" spans="1:19">
       <c r="A43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="10">
-        <v>43</v>
+      <c r="B43" s="9">
+        <v>41</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>331</v>
@@ -8434,14 +9083,14 @@
       <c r="A44" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="10">
-        <v>44</v>
+      <c r="B44" s="9">
+        <v>42</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>140</v>
@@ -8502,10 +9151,10 @@
       <c r="AK44" s="10"/>
       <c r="AL44" s="10"/>
       <c r="AM44" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN44" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="AN44" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="AO44" s="10" t="s">
         <v>206</v>
@@ -8517,21 +9166,21 @@
         <v>144</v>
       </c>
       <c r="AS44" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" ht="83" customHeight="1" spans="1:44">
       <c r="A45" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="10">
-        <v>45</v>
+      <c r="B45" s="9">
+        <v>43</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>140</v>
@@ -8585,14 +9234,14 @@
       <c r="A46" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="10">
-        <v>46</v>
+      <c r="B46" s="9">
+        <v>44</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>140</v>
@@ -8643,7 +9292,7 @@
         <v>149</v>
       </c>
       <c r="AD46" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE46" s="26" t="s">
         <v>143</v>
@@ -8740,22 +9389,22 @@
         <v>334</v>
       </c>
       <c r="BU46" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW46" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ46" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="BW46" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="BX46" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY46" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ46" s="10" t="s">
+      <c r="CE46" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="CE46" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="CF46" s="9" t="s">
         <v>208</v>
@@ -8786,7 +9435,7 @@
         <v>144</v>
       </c>
       <c r="CV46" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DA46" s="13" t="s">
         <v>335</v>
@@ -8801,7 +9450,7 @@
         <v>144</v>
       </c>
       <c r="DG46" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DL46" s="13" t="s">
         <v>337</v>
@@ -8816,18 +9465,21 @@
         <v>224</v>
       </c>
       <c r="DR46" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" ht="318.75" spans="1:111">
       <c r="A47" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="10">
-        <v>47</v>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>140</v>
@@ -8993,7 +9645,7 @@
         <v>145</v>
       </c>
       <c r="CE47" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CF47" s="9" t="s">
         <v>208</v>
@@ -9015,7 +9667,7 @@
         <v>340</v>
       </c>
       <c r="CQ47" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="CR47" s="10" t="s">
         <v>342</v>
@@ -9045,18 +9697,21 @@
         <v>224</v>
       </c>
       <c r="DG47" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" ht="41" customHeight="1" spans="1:45">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="10">
-        <v>48</v>
+      <c r="B48" s="9">
+        <v>46</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>140</v>
@@ -9142,18 +9797,21 @@
         <v>144</v>
       </c>
       <c r="AS48" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" ht="318.75" spans="1:100">
       <c r="A49" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="10">
-        <v>49</v>
+      <c r="B49" s="9">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>140</v>
@@ -9204,7 +9862,7 @@
         <v>149</v>
       </c>
       <c r="AD49" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE49" s="26" t="s">
         <v>143</v>
@@ -9226,7 +9884,7 @@
         <v>180</v>
       </c>
       <c r="AO49" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>159</v>
@@ -9253,7 +9911,7 @@
         <v>144</v>
       </c>
       <c r="BD49" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI49" s="13" t="s">
         <v>335</v>
@@ -9271,7 +9929,7 @@
         <v>144</v>
       </c>
       <c r="BO49" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BT49" s="13" t="s">
         <v>337</v>
@@ -9289,7 +9947,7 @@
         <v>224</v>
       </c>
       <c r="BZ49" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CE49" s="13" t="s">
         <v>340</v>
@@ -9307,7 +9965,7 @@
         <v>144</v>
       </c>
       <c r="CK49" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CP49" s="13" t="s">
         <v>344</v>
@@ -9325,18 +9983,21 @@
         <v>224</v>
       </c>
       <c r="CV49" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" ht="125" customHeight="1" spans="1:78">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="10">
-        <v>50</v>
+      <c r="B50" s="9">
+        <v>48</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>140</v>
@@ -9478,13 +10139,13 @@
       <c r="BR50" s="10"/>
       <c r="BS50" s="10"/>
       <c r="BT50" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BU50" s="9" t="s">
         <v>180</v>
       </c>
       <c r="BV50" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BW50" s="9" t="s">
         <v>159</v>
@@ -9493,18 +10154,21 @@
         <v>144</v>
       </c>
       <c r="BZ50" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" ht="101" customHeight="1" spans="1:56">
       <c r="A51" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="10">
-        <v>51</v>
+      <c r="B51" s="9">
+        <v>49</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>140</v>
@@ -9587,13 +10251,13 @@
         <v>151</v>
       </c>
       <c r="AX51" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AY51" s="9" t="s">
         <v>205</v>
       </c>
       <c r="AZ51" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BA51" s="10" t="s">
         <v>143</v>
@@ -9612,11 +10276,14 @@
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="10">
-        <v>52</v>
+      <c r="B52" s="9">
+        <v>50</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>140</v>
@@ -9667,7 +10334,7 @@
         <v>149</v>
       </c>
       <c r="AD52" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE52" s="26" t="s">
         <v>143</v>
@@ -9812,7 +10479,7 @@
         <v>144</v>
       </c>
       <c r="CV52" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="DA52" s="13" t="s">
         <v>335</v>
@@ -9827,7 +10494,7 @@
         <v>144</v>
       </c>
       <c r="DG52" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="DL52" s="13" t="s">
         <v>337</v>
@@ -9842,7 +10509,7 @@
         <v>224</v>
       </c>
       <c r="DR52" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="DW52" s="13" t="s">
         <v>340</v>
@@ -9860,7 +10527,7 @@
         <v>144</v>
       </c>
       <c r="EC52" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="EH52" s="13" t="s">
         <v>344</v>
@@ -9878,18 +10545,21 @@
         <v>224</v>
       </c>
       <c r="EN52" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" ht="140" customHeight="1" spans="1:56">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="10">
-        <v>53</v>
+      <c r="B53" s="9">
+        <v>51</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>140</v>
@@ -9980,13 +10650,13 @@
         <v>145</v>
       </c>
       <c r="AX53" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AY53" s="9" t="s">
         <v>196</v>
       </c>
       <c r="AZ53" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BA53" s="10" t="s">
         <v>143</v>
@@ -10005,11 +10675,14 @@
       <c r="A54" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="10">
-        <v>54</v>
+      <c r="B54" s="9">
+        <v>52</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>140</v>
@@ -10151,13 +10824,13 @@
       <c r="BR54" s="10"/>
       <c r="BS54" s="10"/>
       <c r="BT54" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BU54" s="9" t="s">
         <v>196</v>
       </c>
       <c r="BV54" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BW54" s="10" t="s">
         <v>143</v>
@@ -10176,11 +10849,14 @@
       <c r="A55" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="10">
-        <v>55</v>
+      <c r="B55" s="9">
+        <v>53</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>140</v>
@@ -10343,13 +11019,13 @@
         <v>145</v>
       </c>
       <c r="CE55" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="CF55" s="9" t="s">
         <v>196</v>
       </c>
       <c r="CG55" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="CH55" s="10" t="s">
         <v>143</v>
@@ -10361,112 +11037,179 @@
         <v>144</v>
       </c>
       <c r="CK55" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="56" ht="318.75" spans="1:45">
+    <row r="56" s="12" customFormat="1" ht="51" customHeight="1" spans="1:138">
       <c r="A56" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="10">
-        <v>56</v>
+      <c r="B56" s="9">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E56" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC56" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD56" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE56" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH56" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI56" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM56" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN56" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO56" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP56" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ56" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR56" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS56" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT56" s="21"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="AY56" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="S56" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC56" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD56" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE56" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH56" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI56" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM56" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="AN56" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO56" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP56" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS56" s="9" t="s">
-        <v>381</v>
-      </c>
+      <c r="AZ56" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA56" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB56" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC56" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD56" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="BE56" s="21"/>
+      <c r="BF56" s="21"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="20"/>
+      <c r="BJ56" s="21"/>
+      <c r="BK56" s="21"/>
+      <c r="BL56" s="21"/>
+      <c r="BM56" s="21"/>
+      <c r="BN56" s="21"/>
+      <c r="BO56" s="21"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="21"/>
+      <c r="BR56" s="21"/>
+      <c r="BS56" s="21"/>
+      <c r="BT56" s="20"/>
+      <c r="BU56" s="21"/>
+      <c r="BV56" s="21"/>
+      <c r="BW56" s="21"/>
+      <c r="BX56" s="21"/>
+      <c r="BY56" s="21"/>
+      <c r="BZ56" s="21"/>
+      <c r="CE56" s="20"/>
+      <c r="CH56" s="21"/>
+      <c r="CI56" s="21"/>
+      <c r="CJ56" s="21"/>
+      <c r="CK56" s="21"/>
+      <c r="CP56" s="20"/>
+      <c r="DA56" s="20"/>
+      <c r="DB56" s="21"/>
+      <c r="DL56" s="20"/>
+      <c r="DM56" s="21"/>
+      <c r="DW56" s="20"/>
+      <c r="EH56" s="20"/>
     </row>
-    <row r="57" ht="318.75" spans="1:45">
+    <row r="57" ht="122" customHeight="1" spans="1:89">
       <c r="A57" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="10">
-        <v>57</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>382</v>
+      <c r="B57" s="9">
+        <v>55</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>140</v>
@@ -10496,10 +11239,10 @@
       <c r="Q57" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R57" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="S57" s="9" t="s">
+      <c r="S57" s="10" t="s">
         <v>142</v>
       </c>
       <c r="T57" s="10"/>
@@ -10517,7 +11260,7 @@
         <v>149</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="AE57" s="26" t="s">
         <v>143</v>
@@ -10532,14 +11275,17 @@
       <c r="AI57" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
       <c r="AM57" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="AN57" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO57" s="9" t="s">
-        <v>384</v>
+        <v>185</v>
+      </c>
+      <c r="AN57" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO57" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="AP57" s="10" t="s">
         <v>159</v>
@@ -10548,19 +11294,103 @@
       <c r="AR57" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AS57" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="AS57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT57" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="10"/>
+      <c r="AW57" s="10"/>
+      <c r="AX57" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY57" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ57" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE57" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF57" s="10"/>
+      <c r="BG57" s="10"/>
+      <c r="BH57" s="10"/>
+      <c r="BI57" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ57" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK57" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL57" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM57" s="10"/>
+      <c r="BN57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO57" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP57" s="10"/>
+      <c r="BQ57" s="10"/>
+      <c r="BR57" s="10"/>
+      <c r="BS57" s="10"/>
+      <c r="BT57" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="BU57" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV57" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="BW57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CH57" s="10"/>
+      <c r="CI57" s="10"/>
+      <c r="CJ57" s="10"/>
+      <c r="CK57" s="10"/>
     </row>
-    <row r="58" ht="318.75" spans="1:89">
+    <row r="58" ht="51" customHeight="1" spans="1:89">
       <c r="A58" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="10">
-        <v>58</v>
+      <c r="B58" s="9">
+        <v>56</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>140</v>
@@ -10590,10 +11420,10 @@
       <c r="Q58" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="R58" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="S58" s="9" t="s">
+      <c r="S58" s="10" t="s">
         <v>142</v>
       </c>
       <c r="T58" s="10"/>
@@ -10611,7 +11441,7 @@
         <v>149</v>
       </c>
       <c r="AD58" s="10" t="s">
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="AE58" s="26" t="s">
         <v>143</v>
@@ -10626,6 +11456,9 @@
       <c r="AI58" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
       <c r="AM58" s="13" t="s">
         <v>185</v>
       </c>
@@ -10658,7 +11491,7 @@
         <v>141</v>
       </c>
       <c r="AZ58" s="9" t="s">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="BA58" s="10" t="s">
         <v>143</v>
@@ -10722,14 +11555,14 @@
       <c r="BZ58" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="CE58" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="CF58" s="9" t="s">
-        <v>387</v>
+      <c r="CE58" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="CF58" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="CG58" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="CH58" s="10" t="s">
         <v>143</v>
@@ -10740,19 +11573,22 @@
       <c r="CJ58" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="CK58" s="9" t="s">
-        <v>389</v>
+      <c r="CK58" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="59" ht="318.75" spans="1:78">
+    <row r="59" ht="318.75" spans="1:45">
       <c r="A59" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="10">
-        <v>59</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>390</v>
+      <c r="B59" s="9">
+        <v>57</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>140</v>
@@ -10818,14 +11654,14 @@
       <c r="AI59" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AM59" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN59" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO59" s="10" t="s">
-        <v>187</v>
+      <c r="AM59" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN59" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO59" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="AP59" s="10" t="s">
         <v>159</v>
@@ -10834,96 +11670,22 @@
       <c r="AR59" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AS59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT59" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU59" s="10"/>
-      <c r="AV59" s="10"/>
-      <c r="AW59" s="10"/>
-      <c r="AX59" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY59" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ59" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA59" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB59" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC59" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE59" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF59" s="10"/>
-      <c r="BG59" s="10"/>
-      <c r="BH59" s="10"/>
-      <c r="BI59" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ59" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK59" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL59" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM59" s="10"/>
-      <c r="BN59" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO59" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP59" s="10"/>
-      <c r="BQ59" s="10"/>
-      <c r="BR59" s="10"/>
-      <c r="BS59" s="10"/>
-      <c r="BT59" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="BU59" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BV59" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="BW59" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="BX59" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY59" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ59" s="10" t="s">
-        <v>145</v>
+      <c r="AS59" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
-    <row r="60" ht="318.75" spans="1:56">
+    <row r="60" ht="318.75" spans="1:45">
       <c r="A60" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="10">
-        <v>60</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>391</v>
+      <c r="B60" s="9">
+        <v>58</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>140</v>
@@ -10990,57 +11752,37 @@
         <v>151</v>
       </c>
       <c r="AM60" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN60" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO60" s="10" t="s">
-        <v>189</v>
+        <v>386</v>
+      </c>
+      <c r="AN60" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO60" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="AP60" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ60" s="10" t="s">
-        <v>117</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AQ60" s="10"/>
       <c r="AR60" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AS60" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX60" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="AY60" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ60" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA60" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB60" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC60" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD60" s="9" t="s">
-        <v>343</v>
+      <c r="AS60" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="61" ht="318.75" spans="1:45">
+    <row r="61" ht="318.75" spans="1:89">
       <c r="A61" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="10">
-        <v>61</v>
+      <c r="B61" s="9">
+        <v>59</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>140</v>
@@ -11076,6 +11818,14 @@
       <c r="S61" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
       <c r="AB61" s="13" t="s">
         <v>148</v>
       </c>
@@ -11099,36 +11849,135 @@
         <v>151</v>
       </c>
       <c r="AM61" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN61" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO61" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ61" s="10"/>
+      <c r="AR61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS61" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT61" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU61" s="10"/>
+      <c r="AV61" s="10"/>
+      <c r="AW61" s="10"/>
+      <c r="AX61" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY61" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ61" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="BA61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD61" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE61" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF61" s="10"/>
+      <c r="BG61" s="10"/>
+      <c r="BH61" s="10"/>
+      <c r="BI61" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ61" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK61" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM61" s="10"/>
+      <c r="BN61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO61" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP61" s="10"/>
+      <c r="BQ61" s="10"/>
+      <c r="BR61" s="10"/>
+      <c r="BS61" s="10"/>
+      <c r="BT61" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU61" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV61" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ61" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE61" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="CF61" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CG61" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="CH61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CI61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK61" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="AN61" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO61" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="AP61" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ61" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR61" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS61" s="9" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="62" ht="102" customHeight="1" spans="1:100">
+    <row r="62" ht="318.75" spans="1:78">
       <c r="A62" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="10">
-        <v>62</v>
+      <c r="B62" s="9">
+        <v>60</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>140</v>
@@ -11164,6 +12013,14 @@
       <c r="S62" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
       <c r="AB62" s="13" t="s">
         <v>148</v>
       </c>
@@ -11218,7 +12075,7 @@
         <v>141</v>
       </c>
       <c r="AZ62" s="9" t="s">
-        <v>189</v>
+        <v>389</v>
       </c>
       <c r="BA62" s="10" t="s">
         <v>143</v>
@@ -11261,14 +12118,14 @@
       <c r="BQ62" s="10"/>
       <c r="BR62" s="10"/>
       <c r="BS62" s="10"/>
-      <c r="BT62" s="13" t="s">
-        <v>140</v>
+      <c r="BT62" s="35" t="s">
+        <v>393</v>
       </c>
       <c r="BU62" s="10" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="BV62" s="9" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="BW62" s="10" t="s">
         <v>143</v>
@@ -11282,544 +12139,467 @@
       <c r="BZ62" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="CA62" s="10"/>
-      <c r="CB62" s="10"/>
-      <c r="CC62" s="10"/>
-      <c r="CD62" s="10"/>
-      <c r="CE62" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="CF62" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="CG62" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CH62" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="CI62" s="10"/>
-      <c r="CJ62" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CK62" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="CP62" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="CQ62" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="CR62" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="CS62" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="CT62" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CU62" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV62" s="9" t="s">
-        <v>366</v>
-      </c>
     </row>
-    <row r="63" customFormat="1" ht="102" customHeight="1" spans="1:138">
+    <row r="63" ht="318.75" spans="1:56">
       <c r="A63" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="10">
-        <v>63</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
+      <c r="B63" s="9">
+        <v>61</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="10"/>
-      <c r="AE63" s="26"/>
+      <c r="Q63" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD63" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE63" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="AF63" s="10"/>
-      <c r="AG63" s="10"/>
-      <c r="AH63" s="10"/>
-      <c r="AI63" s="10"/>
-      <c r="AM63" s="13"/>
-      <c r="AN63" s="10"/>
-      <c r="AO63" s="10"/>
-      <c r="AP63" s="10"/>
-      <c r="AQ63" s="10"/>
-      <c r="AR63" s="10"/>
-      <c r="AS63" s="10"/>
-      <c r="AT63" s="10"/>
-      <c r="AU63" s="10"/>
-      <c r="AV63" s="10"/>
-      <c r="AW63" s="10"/>
-      <c r="AX63" s="13"/>
-      <c r="AY63" s="10"/>
-      <c r="AZ63" s="9"/>
-      <c r="BA63" s="10"/>
-      <c r="BB63" s="10"/>
-      <c r="BC63" s="10"/>
-      <c r="BD63" s="10"/>
-      <c r="BE63" s="10"/>
-      <c r="BF63" s="10"/>
-      <c r="BG63" s="10"/>
-      <c r="BH63" s="10"/>
-      <c r="BI63" s="13"/>
-      <c r="BJ63" s="10"/>
-      <c r="BK63" s="10"/>
-      <c r="BL63" s="10"/>
-      <c r="BM63" s="10"/>
-      <c r="BN63" s="10"/>
-      <c r="BO63" s="10"/>
-      <c r="BP63" s="10"/>
-      <c r="BQ63" s="10"/>
-      <c r="BR63" s="10"/>
-      <c r="BS63" s="10"/>
-      <c r="BT63" s="13"/>
-      <c r="BU63" s="10"/>
-      <c r="BV63" s="9"/>
-      <c r="BW63" s="10"/>
-      <c r="BX63" s="10"/>
-      <c r="BY63" s="10"/>
-      <c r="BZ63" s="10"/>
-      <c r="CA63" s="10"/>
-      <c r="CB63" s="10"/>
-      <c r="CC63" s="10"/>
-      <c r="CD63" s="10"/>
-      <c r="CE63" s="13"/>
-      <c r="CF63" s="10"/>
-      <c r="CG63" s="10"/>
-      <c r="CH63" s="10"/>
-      <c r="CI63" s="10"/>
-      <c r="CJ63" s="10"/>
-      <c r="CK63" s="10"/>
-      <c r="CP63" s="13"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
-      <c r="CS63" s="10"/>
-      <c r="CT63" s="10"/>
-      <c r="CU63" s="10"/>
-      <c r="CV63" s="9"/>
-      <c r="DA63" s="13"/>
-      <c r="DB63" s="10"/>
-      <c r="DC63" s="9"/>
-      <c r="DD63" s="9"/>
-      <c r="DE63" s="9"/>
-      <c r="DF63" s="9"/>
-      <c r="DG63" s="9"/>
-      <c r="DL63" s="13"/>
-      <c r="DM63" s="10"/>
-      <c r="DN63" s="9"/>
-      <c r="DO63" s="9"/>
-      <c r="DP63" s="9"/>
-      <c r="DQ63" s="9"/>
-      <c r="DR63" s="9"/>
-      <c r="DS63" s="9"/>
-      <c r="DW63" s="13"/>
-      <c r="DX63" s="9"/>
-      <c r="DY63" s="9"/>
-      <c r="DZ63" s="9"/>
-      <c r="EA63" s="9"/>
-      <c r="EB63" s="9"/>
-      <c r="EC63" s="9"/>
-      <c r="ED63" s="9"/>
-      <c r="EH63" s="13"/>
+      <c r="AG63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI63" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM63" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN63" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO63" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP63" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX63" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AY63" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ63" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA63" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD63" s="9" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="64" s="12" customFormat="1" ht="102" customHeight="1" spans="1:138">
+    <row r="64" ht="318.75" spans="1:45">
       <c r="A64" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="10">
-        <v>64</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="F64" s="21" t="s">
+      <c r="B64" s="9">
+        <v>62</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="21" t="s">
+      <c r="I64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R64" s="12" t="s">
+      <c r="R64" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="S64" s="12" t="s">
+      <c r="S64" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AB64" s="21" t="s">
+      <c r="AB64" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AC64" s="22" t="s">
+      <c r="AC64" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AD64" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="AE64" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH64" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI64" s="22" t="s">
+      <c r="AD64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE64" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH64" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI64" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AM64" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN64" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO64" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP64" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ64" s="22"/>
-      <c r="AR64" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS64" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT64" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU64" s="22"/>
-      <c r="AV64" s="22"/>
-      <c r="AW64" s="22"/>
-      <c r="AX64" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY64" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ64" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA64" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB64" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC64" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD64" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE64" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF64" s="22"/>
-      <c r="BG64" s="22"/>
-      <c r="BH64" s="22"/>
-      <c r="BI64" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ64" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK64" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL64" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM64" s="22"/>
-      <c r="BN64" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO64" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP64" s="22"/>
-      <c r="BQ64" s="22"/>
-      <c r="BR64" s="22"/>
-      <c r="BS64" s="22"/>
-      <c r="BT64" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU64" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="BV64" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW64" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="BX64" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY64" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ64" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="CE64" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="CF64" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="CG64" s="22"/>
-      <c r="CH64" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="CI64" s="10"/>
-      <c r="CJ64" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CK64" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="CP64" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="CQ64" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="CR64" s="22"/>
-      <c r="CS64" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="CT64" s="10"/>
-      <c r="CU64" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV64" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="DA64" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="DB64" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="DC64" s="9"/>
-      <c r="DD64" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="DE64" s="9"/>
-      <c r="DF64" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DG64" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="DL64" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="DM64" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="DN64" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="DO64" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP64" s="10"/>
-      <c r="DQ64" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="DR64" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="DS64" s="10"/>
-      <c r="DW64" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="DX64" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="DY64" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="DZ64" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="EA64" s="10"/>
-      <c r="EB64" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="EC64" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="ED64" s="10"/>
-      <c r="EH64" s="21"/>
+      <c r="AM64" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN64" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO64" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR64" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS64" s="9" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="65" ht="318.75" spans="1:117">
+    <row r="65" ht="102" customHeight="1" spans="1:100">
       <c r="A65" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="10">
-        <v>65</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="F65" s="21" t="s">
+      <c r="B65" s="9">
+        <v>63</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I65" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="M65" s="22" t="s">
+      <c r="I65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB65" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD65" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE65" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM65" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN65" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO65" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ65" s="10"/>
+      <c r="AR65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT65" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="10"/>
+      <c r="AW65" s="10"/>
+      <c r="AX65" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY65" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ65" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE65" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="S65" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB65" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD65" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE65" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH65" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI65" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM65" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="AN65" s="9" t="s">
+      <c r="BF65" s="10"/>
+      <c r="BG65" s="10"/>
+      <c r="BH65" s="10"/>
+      <c r="BI65" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK65" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM65" s="10"/>
+      <c r="BN65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO65" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP65" s="10"/>
+      <c r="BQ65" s="10"/>
+      <c r="BR65" s="10"/>
+      <c r="BS65" s="10"/>
+      <c r="BT65" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU65" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV65" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BW65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA65" s="10"/>
+      <c r="CB65" s="10"/>
+      <c r="CC65" s="10"/>
+      <c r="CD65" s="10"/>
+      <c r="CE65" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG65" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="CI65" s="10"/>
+      <c r="CJ65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK65" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP65" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="CQ65" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="AO65" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="AP65" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR65" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS65" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="CK65" s="10"/>
-      <c r="DM65" s="43"/>
+      <c r="CR65" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="CS65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CT65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="CU65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV65" s="9" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="66" ht="91" customHeight="1" spans="1:78">
+    <row r="66" s="12" customFormat="1" ht="102" customHeight="1" spans="1:138">
       <c r="A66" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="10">
-        <v>66</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="F66" s="21" t="s">
+      <c r="B66" s="9">
+        <v>64</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="F66" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I66" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="21" t="s">
+      <c r="I66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="20" t="s">
         <v>146</v>
       </c>
       <c r="R66" s="12" t="s">
@@ -11828,480 +12608,498 @@
       <c r="S66" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="21" t="s">
+      <c r="AB66" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="AC66" s="22" t="s">
+      <c r="AC66" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AD66" s="22" t="s">
-        <v>184</v>
+      <c r="AD66" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="AE66" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH66" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI66" s="22" t="s">
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH66" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI66" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="AJ66" s="12"/>
-      <c r="AK66" s="12"/>
-      <c r="AL66" s="12"/>
-      <c r="AM66" s="21" t="s">
+      <c r="AM66" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AN66" s="22" t="s">
+      <c r="AN66" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="AO66" s="22" t="s">
+      <c r="AO66" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="AP66" s="22" t="s">
+      <c r="AP66" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS66" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS66" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT66" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="21" t="s">
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AY66" s="22" t="s">
+      <c r="AY66" s="21" t="s">
         <v>141</v>
       </c>
       <c r="AZ66" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="BA66" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB66" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC66" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD66" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE66" s="22" t="s">
+      <c r="BA66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB66" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC66" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD66" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE66" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="BF66" s="22"/>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="21" t="s">
+      <c r="BF66" s="21"/>
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="BJ66" s="22" t="s">
+      <c r="BJ66" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="BK66" s="22" t="s">
+      <c r="BK66" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="BL66" s="22" t="s">
+      <c r="BL66" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO66" s="22" t="s">
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO66" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="BP66" s="22"/>
-      <c r="BQ66" s="22"/>
-      <c r="BR66" s="22"/>
-      <c r="BS66" s="22"/>
-      <c r="BT66" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="BU66" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV66" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="BW66" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="BX66" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY66" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ66" s="22" t="s">
-        <v>366</v>
-      </c>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="21"/>
+      <c r="BR66" s="21"/>
+      <c r="BS66" s="21"/>
+      <c r="BT66" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU66" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV66" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW66" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX66" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY66" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ66" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE66" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="CF66" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CG66" s="21"/>
+      <c r="CH66" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="CI66" s="10"/>
+      <c r="CJ66" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK66" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="CP66" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="CQ66" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="CR66" s="21"/>
+      <c r="CS66" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="CT66" s="10"/>
+      <c r="CU66" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV66" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="DA66" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="DB66" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="DC66" s="9"/>
+      <c r="DD66" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE66" s="9"/>
+      <c r="DF66" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="DG66" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="DL66" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="DM66" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="DN66" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="DO66" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="DP66" s="10"/>
+      <c r="DQ66" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR66" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="DS66" s="10"/>
+      <c r="DW66" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="DX66" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="DY66" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="DZ66" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="EA66" s="10"/>
+      <c r="EB66" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="EC66" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="ED66" s="10"/>
+      <c r="EH66" s="20"/>
     </row>
-    <row r="67" ht="115" customHeight="1" spans="1:122">
+    <row r="67" ht="318.75" spans="1:117">
       <c r="A67" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
+        <v>65</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M67" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R67" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB67" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC67" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD67" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE67" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH67" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI67" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM67" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN67" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO67" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR67" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS67" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK67" s="10"/>
+      <c r="DM67" s="47"/>
+    </row>
+    <row r="68" ht="91" customHeight="1" spans="1:78">
+      <c r="A68" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="9">
+        <v>66</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC68" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD68" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE68" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI68" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN68" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO68" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP68" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ68" s="21"/>
+      <c r="AR68" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT68" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU68" s="21"/>
+      <c r="AV68" s="21"/>
+      <c r="AW68" s="21"/>
+      <c r="AX68" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY68" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ68" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA68" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB68" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC68" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD68" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE68" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF68" s="21"/>
+      <c r="BG68" s="21"/>
+      <c r="BH68" s="21"/>
+      <c r="BI68" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ68" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK68" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL68" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM68" s="21"/>
+      <c r="BN68" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO68" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP68" s="21"/>
+      <c r="BQ68" s="21"/>
+      <c r="BR68" s="21"/>
+      <c r="BS68" s="21"/>
+      <c r="BT68" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="BU68" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV68" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="BW68" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX68" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY68" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ68" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" ht="115" customHeight="1" spans="1:122">
+      <c r="A69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="9">
         <v>67</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="R67" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="S67" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC67" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD67" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE67" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI67" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM67" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN67" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO67" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP67" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ67" s="10"/>
-      <c r="AR67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT67" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU67" s="10"/>
-      <c r="AV67" s="10"/>
-      <c r="AW67" s="10"/>
-      <c r="AX67" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY67" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ67" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA67" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB67" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE67" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF67" s="10"/>
-      <c r="BG67" s="10"/>
-      <c r="BH67" s="10"/>
-      <c r="BI67" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ67" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK67" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL67" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM67" s="10"/>
-      <c r="BN67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO67" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP67" s="10"/>
-      <c r="BQ67" s="10"/>
-      <c r="BR67" s="10"/>
-      <c r="BS67" s="10"/>
-      <c r="BT67" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU67" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="BV67" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW67" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="BX67" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ67" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="CE67" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="CF67" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG67" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="CH67" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="CI67" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="CJ67" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="CK67" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="CP67" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="CQ67" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="CR67" s="22"/>
-      <c r="CS67" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="CT67" s="10"/>
-      <c r="CU67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV67" s="10" t="s">
+      <c r="D69" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="DA67" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="DB67" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="DC67" s="22"/>
-      <c r="DD67" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE67" s="10"/>
-      <c r="DF67" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="DG67" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="DL67" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="DM67" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="DN67" s="22"/>
-      <c r="DO67" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="DP67" s="10"/>
-      <c r="DQ67" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DR67" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="68" ht="97" customHeight="1" spans="2:126">
-      <c r="B68" s="10">
-        <v>68</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="R68" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="S68" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="AB68" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC68" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH68" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI68" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM68" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="AN68" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="AO68" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP68" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR68" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS68" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="DM68" s="22"/>
-      <c r="DN68" s="9"/>
-      <c r="DO68" s="9"/>
-      <c r="DP68" s="9"/>
-      <c r="DQ68" s="9"/>
-      <c r="DR68" s="10"/>
-      <c r="DS68" s="12"/>
-      <c r="DT68" s="12"/>
-      <c r="DU68" s="12"/>
-      <c r="DV68" s="12"/>
-    </row>
-    <row r="69" ht="76" customHeight="1" spans="2:56">
-      <c r="B69" s="10">
-        <v>69</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>140</v>
@@ -12339,18 +13137,23 @@
       </c>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
       <c r="AB69" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC69" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD69" s="22"/>
-      <c r="AE69" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
+      </c>
+      <c r="AC69" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD69" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE69" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="AF69" s="10"/>
       <c r="AG69" s="10" t="s">
@@ -12363,16 +13166,16 @@
         <v>151</v>
       </c>
       <c r="AM69" s="13" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="AN69" s="10" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AO69" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP69" s="26" t="s">
-        <v>143</v>
+        <v>187</v>
+      </c>
+      <c r="AP69" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="AQ69" s="10"/>
       <c r="AR69" s="10" t="s">
@@ -12381,51 +13184,2961 @@
       <c r="AS69" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AT69" s="10"/>
+      <c r="AT69" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="10"/>
+      <c r="AW69" s="10"/>
       <c r="AX69" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY69" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ69" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA69" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB69" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD69" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE69" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF69" s="10"/>
+      <c r="BG69" s="10"/>
+      <c r="BH69" s="10"/>
+      <c r="BI69" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ69" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK69" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL69" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM69" s="10"/>
+      <c r="BN69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO69" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP69" s="10"/>
+      <c r="BQ69" s="10"/>
+      <c r="BR69" s="10"/>
+      <c r="BS69" s="10"/>
+      <c r="BT69" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU69" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV69" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW69" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX69" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ69" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE69" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="CF69" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG69" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="CH69" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="CI69" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ69" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK69" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="CP69" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="CQ69" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR69" s="21"/>
+      <c r="CS69" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="CT69" s="10"/>
+      <c r="CU69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV69" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="DA69" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="DB69" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="DC69" s="21"/>
+      <c r="DD69" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE69" s="10"/>
+      <c r="DF69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG69" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="DL69" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="DM69" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="DN69" s="21"/>
+      <c r="DO69" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP69" s="10"/>
+      <c r="DQ69" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DR69" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" ht="115" customHeight="1" spans="1:122">
+      <c r="A70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="9">
+        <v>68</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R70" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC70" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD70" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE70" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG70" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH70" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN70" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO70" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="10"/>
+      <c r="AS70" s="10"/>
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="10"/>
+      <c r="AW70" s="10"/>
+      <c r="AY70" s="10"/>
+      <c r="BA70" s="10"/>
+      <c r="BB70" s="10"/>
+      <c r="BC70" s="10"/>
+      <c r="BD70" s="10"/>
+      <c r="BE70" s="10"/>
+      <c r="BF70" s="10"/>
+      <c r="BG70" s="10"/>
+      <c r="BH70" s="10"/>
+      <c r="BK70" s="10"/>
+      <c r="BL70" s="10"/>
+      <c r="BM70" s="10"/>
+      <c r="BN70" s="10"/>
+      <c r="BO70" s="10"/>
+      <c r="BP70" s="10"/>
+      <c r="BQ70" s="10"/>
+      <c r="BR70" s="10"/>
+      <c r="BS70" s="10"/>
+      <c r="BV70" s="10"/>
+      <c r="BW70" s="10"/>
+      <c r="BX70" s="10"/>
+      <c r="BY70" s="10"/>
+      <c r="BZ70" s="10"/>
+      <c r="CG70" s="12"/>
+      <c r="CH70" s="21"/>
+      <c r="CI70" s="21"/>
+      <c r="CJ70" s="21"/>
+      <c r="CR70" s="21"/>
+      <c r="CS70" s="10"/>
+      <c r="CT70" s="10"/>
+      <c r="CU70" s="10"/>
+      <c r="CV70" s="10"/>
+      <c r="DC70" s="21"/>
+      <c r="DD70" s="10"/>
+      <c r="DE70" s="10"/>
+      <c r="DF70" s="10"/>
+      <c r="DG70" s="10"/>
+      <c r="DN70" s="21"/>
+      <c r="DO70" s="10"/>
+      <c r="DP70" s="10"/>
+      <c r="DQ70" s="10"/>
+      <c r="DR70" s="10"/>
+    </row>
+    <row r="71" ht="97" customHeight="1" spans="1:126">
+      <c r="A71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="9">
+        <v>69</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="AY69" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="AZ69" s="10" t="s">
+      <c r="F71" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="AB71" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC71" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH71" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI71" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM71" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AN71" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO71" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="BA69" s="10" t="s">
+      <c r="AP71" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="BC69" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD69" s="9" t="s">
-        <v>416</v>
-      </c>
+      <c r="AR71" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS71" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="DM71" s="21"/>
+      <c r="DR71" s="10"/>
+      <c r="DS71" s="12"/>
+      <c r="DT71" s="12"/>
+      <c r="DU71" s="12"/>
+      <c r="DV71" s="12"/>
     </row>
-    <row r="70" spans="2:24">
-      <c r="B70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="33"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
+    <row r="72" ht="76" customHeight="1" spans="1:56">
+      <c r="A72" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="9">
+        <v>70</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R72" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="AB72" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC72" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH72" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI72" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM72" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN72" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO72" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP72" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ72" s="10"/>
+      <c r="AR72" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS72" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT72" s="10"/>
+      <c r="AX72" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY72" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ72" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA72" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC72" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD72" s="9" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="72" spans="42:45">
-      <c r="AP72" s="10"/>
-      <c r="AQ72" s="10"/>
-      <c r="AR72" s="10"/>
-      <c r="AS72" s="10"/>
+    <row r="73" ht="318.75" spans="1:45">
+      <c r="A73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="9">
+        <v>71</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T73" s="10"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="AB73" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC73" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD73" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE73" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH73" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI73" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM73" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN73" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO73" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP73" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ73" s="10"/>
+      <c r="AR73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS73" s="10" t="s">
+        <v>424</v>
+      </c>
     </row>
-    <row r="73" ht="56.25"/>
+    <row r="74" ht="116" customHeight="1" spans="1:45">
+      <c r="A74" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="9">
+        <v>72</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB74" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC74" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD74" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE74" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI74" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM74" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN74" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO74" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="AP74" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS74" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75" ht="318.75" spans="1:111">
+      <c r="A75" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="9">
+        <v>73</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB75" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC75" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD75" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE75" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH75" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI75" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM75" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN75" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO75" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="AP75" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ75" s="10"/>
+      <c r="AR75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS75" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT75" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX75" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="AY75" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="BA75" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD75" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="BI75" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="BJ75" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK75" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="BL75" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM75" s="10"/>
+      <c r="BN75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO75" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT75" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BU75" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="BW75" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ75" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="CE75" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="CF75" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="CH75" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ75" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CK75" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="CP75" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="CQ75" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="CR75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="CS75" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV75" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="DA75" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="DB75" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="DC75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="DD75" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="DF75" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DG75" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="76" ht="176" customHeight="1" spans="1:100">
+      <c r="A76" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="9">
+        <v>74</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB76" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC76" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD76" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE76" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI76" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM76" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN76" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO76" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP76" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ76" s="10"/>
+      <c r="AR76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS76" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT76" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX76" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AY76" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="AZ76" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="BA76" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD76" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI76" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ76" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="BL76" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO76" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="BT76" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU76" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW76" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY76" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BZ76" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="CE76" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="CF76" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="CG76" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH76" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK76" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="CP76" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="CQ76" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="CR76" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="CS76" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU76" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CV76" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" ht="106" customHeight="1" spans="1:78">
+      <c r="A77" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="9">
+        <v>75</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R77" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S77" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB77" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC77" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD77" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE77" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI77" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM77" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="AN77" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AO77" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP77" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ77" s="10"/>
+      <c r="AR77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX77" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY77" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA77" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI77" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ77" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL77" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO77" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT77" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU77" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW77" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY77" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BZ77" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" ht="78" customHeight="1" spans="1:122">
+      <c r="A78" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="9">
+        <v>76</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB78" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC78" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD78" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE78" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI78" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN78" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO78" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP78" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ78" s="21"/>
+      <c r="AR78" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT78" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU78" s="21"/>
+      <c r="AV78" s="21"/>
+      <c r="AW78" s="21"/>
+      <c r="AX78" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY78" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ78" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA78" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB78" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC78" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE78" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF78" s="21"/>
+      <c r="BG78" s="21"/>
+      <c r="BH78" s="21"/>
+      <c r="BI78" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ78" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK78" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL78" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM78" s="21"/>
+      <c r="BN78" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO78" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP78" s="21"/>
+      <c r="BQ78" s="21"/>
+      <c r="BR78" s="21"/>
+      <c r="BS78" s="21"/>
+      <c r="BT78" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU78" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV78" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW78" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX78" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY78" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ78" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE78" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="CF78" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="CG78" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="CH78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ78" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK78" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="CP78" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="CQ78" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="CR78" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="CS78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU78" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV78" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DA78" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="DB78" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="DC78" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="DD78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="DF78" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG78" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DL78" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="DM78" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="DN78" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="DO78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ78" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DR78" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" ht="318.75" spans="1:133">
+      <c r="A79" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="9">
+        <v>77</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S79" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB79" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC79" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD79" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE79" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH79" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI79" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ79" s="12"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="12"/>
+      <c r="AM79" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN79" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO79" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP79" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ79" s="21"/>
+      <c r="AR79" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS79" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT79" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU79" s="21"/>
+      <c r="AV79" s="21"/>
+      <c r="AW79" s="21"/>
+      <c r="AX79" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY79" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ79" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA79" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB79" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC79" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD79" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE79" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF79" s="21"/>
+      <c r="BG79" s="21"/>
+      <c r="BH79" s="21"/>
+      <c r="BI79" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ79" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK79" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="BL79" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM79" s="21"/>
+      <c r="BN79" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO79" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT79" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV79" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW79" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX79" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY79" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ79" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE79" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="CF79" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="CH79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ79" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK79" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="CP79" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="CQ79" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="CS79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU79" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV79" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="DA79" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="DB79" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="DD79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="DF79" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="DG79" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="DL79" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="DM79" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="DN79" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="DO79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ79" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR79" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="DW79" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="DX79" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="DY79" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="EB79" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="EC79" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" ht="318.75" spans="1:45">
+      <c r="A80" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="9">
+        <v>78</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R80" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB80" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC80" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD80" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE80" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF80" s="21"/>
+      <c r="AG80" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH80" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI80" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ80" s="12"/>
+      <c r="AM80" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN80" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="AO80" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="AP80" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ80" s="21"/>
+      <c r="AR80" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS80" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" ht="125" customHeight="1" spans="1:78">
+      <c r="A81" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="9">
+        <v>79</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB81" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC81" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD81" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE81" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF81" s="21"/>
+      <c r="AG81" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH81" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI81" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ81" s="12"/>
+      <c r="AM81" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN81" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO81" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP81" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ81" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR81" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS81" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT81" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX81" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY81" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ81" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB81" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC81" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD81" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI81" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="BJ81" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="BK81" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="BL81" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM81" s="21"/>
+      <c r="BN81" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO81" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT81" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="BU81" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="BV81" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BW81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX81" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY81" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ81" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" s="12" customFormat="1" ht="318.75" spans="1:138">
+      <c r="A82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="12">
+        <v>80</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T82" s="21"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+      <c r="AB82" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC82" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD82" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE82" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH82" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI82" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM82" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN82" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO82" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP82" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ82" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR82" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS82" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX82" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY82" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="BA82" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB82" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC82" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD82" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="BI82" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ82" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL82" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM82" s="21"/>
+      <c r="BN82" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO82" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="BT82" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU82" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW82" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX82" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY82" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BZ82" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="CE82" s="20"/>
+      <c r="CP82" s="20"/>
+      <c r="DA82" s="20"/>
+      <c r="DB82" s="21"/>
+      <c r="DL82" s="20"/>
+      <c r="DM82" s="21"/>
+      <c r="DW82" s="20"/>
+      <c r="EH82" s="20"/>
+    </row>
+    <row r="83" ht="176" customHeight="1" spans="1:78">
+      <c r="A83" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="12">
+        <v>81</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q83" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="AB83" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC83" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD83" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE83" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF83" s="21"/>
+      <c r="AG83" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH83" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI83" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN83" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO83" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP83" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ83" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR83" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS83" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AX83" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="AY83" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ83" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="BA83" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB83" s="21"/>
+      <c r="BC83" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD83" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE83" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI83" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="BJ83" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK83" s="9">
+        <v>10</v>
+      </c>
+      <c r="BL83" s="33"/>
+      <c r="BM83" s="21"/>
+      <c r="BN83" s="21"/>
+      <c r="BO83" s="21"/>
+      <c r="BT83" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="BU83" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV83" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BW83" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX83" s="21"/>
+      <c r="BY83" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ83" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" ht="318.75" spans="1:67">
+      <c r="A84" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="12">
+        <v>82</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L84" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q84" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S84" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="AB84" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC84" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD84" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE84" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH84" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI84" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN84" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO84" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP84" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ84" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR84" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS84" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT84" s="12"/>
+      <c r="AU84" s="12"/>
+      <c r="AX84" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="AY84" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ84" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="BA84" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB84" s="21"/>
+      <c r="BC84" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD84" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE84" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI84" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="BJ84" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="BK84" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="BL84" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO84" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" ht="318.75" spans="1:46">
+      <c r="A85" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="12">
+        <v>83</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q85" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R85" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S85" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="AB85" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC85" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD85" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE85" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH85" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI85" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="AN85" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="AO85" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP85" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ85" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR85" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS85" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT85" s="21"/>
+    </row>
+    <row r="86" ht="150" spans="1:12">
+      <c r="A86" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="12">
+        <v>84</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" ht="75" spans="1:12">
+      <c r="A87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="12">
+        <v>85</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" ht="112.5" spans="1:24">
+      <c r="A88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="12">
+        <v>86</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q88" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="R88" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="T88" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="U88" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V88" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="W88" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="X88" s="21"/>
+    </row>
+    <row r="89" ht="168.75" spans="1:12">
+      <c r="A89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="12">
+        <v>87</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J89" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" ht="93" customHeight="1" spans="1:23">
+      <c r="A90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="12">
+        <v>88</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="R90" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="T90" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="U90" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V90" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="W90" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" ht="93.75" spans="1:12">
+      <c r="A91" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="12">
+        <v>89</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" ht="75" spans="1:12">
+      <c r="A92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="12">
+        <v>90</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J92" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" ht="67" customHeight="1" spans="1:12">
+      <c r="A93" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="12">
+        <v>91</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L93" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="94" ht="112.5" spans="1:23">
+      <c r="A94" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="12">
+        <v>92</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J94" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K94" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q94" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="R94" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="T94" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="U94" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V94" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="W94" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="95" ht="37.5" spans="1:12">
+      <c r="A95" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="12">
+        <v>93</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J95" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L95" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" ht="75" spans="1:12">
+      <c r="A96" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="12">
+        <v>94</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L96" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" ht="37.5" spans="1:12">
+      <c r="A97" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="12">
+        <v>95</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J97" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L97" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" ht="55" customHeight="1" spans="2:12">
+      <c r="B98" s="12">
+        <v>96</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J98" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L98" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12462,7 +16175,7 @@
         <v>141</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>417</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -12484,7 +16197,7 @@
         <v>152</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
@@ -12520,7 +16233,7 @@
         <v>141</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>417</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="2:4">
@@ -12542,7 +16255,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="2:4">
@@ -12553,7 +16266,7 @@
         <v>167</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>419</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1" spans="2:4">
@@ -12706,7 +16419,7 @@
         <v>322</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>143</v>
@@ -12768,7 +16481,7 @@
         <v>322</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>421</v>
+        <v>526</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>143</v>
